--- a/data/trans_dic/P07_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2433368878738634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2352954933472139</v>
+        <v>0.235295493347214</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1820529794131617</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1201775301460699</v>
+        <v>0.1226014104137899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1929997148316971</v>
+        <v>0.1972715349532823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1986133524377109</v>
+        <v>0.1970949318164436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1920022945470364</v>
+        <v>0.1961878949617134</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1376519447849463</v>
+        <v>0.1402003946025379</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3415134421448101</v>
+        <v>0.3327972887695081</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2779658041455519</v>
+        <v>0.2782381907350261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2851057624499438</v>
+        <v>0.2849186044092609</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1419611739497584</v>
+        <v>0.1413693938218916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2855523368623789</v>
+        <v>0.2810138035502532</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2529972106172234</v>
+        <v>0.2458494922002433</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2511234188818886</v>
+        <v>0.2506533489486411</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2074758321637145</v>
+        <v>0.2082362029913498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2989642047944507</v>
+        <v>0.2999583271477975</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3002070816304089</v>
+        <v>0.3020671766403427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2773556858398593</v>
+        <v>0.2859872029356246</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2351386904843246</v>
+        <v>0.242994582321139</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4683854533008084</v>
+        <v>0.4646827016633501</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3902195819768147</v>
+        <v>0.3966989933297239</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3692049614302068</v>
+        <v>0.3671359387239995</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2125956395426113</v>
+        <v>0.2039099449159328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3619957691779455</v>
+        <v>0.3649012716322518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3267812832941095</v>
+        <v>0.3271575784708059</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3087039625779635</v>
+        <v>0.3118125929482735</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1857122774114238</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.166641418833298</v>
+        <v>0.1666414188332979</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1406143845935989</v>
+        <v>0.137583406612214</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1405470254417099</v>
+        <v>0.1437238652763058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1171088718783736</v>
+        <v>0.1151824603677789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1141752115612291</v>
+        <v>0.1179489608668987</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2810168841535822</v>
+        <v>0.2858331417698151</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2706759709544169</v>
+        <v>0.271731157842269</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1854025904336399</v>
+        <v>0.188024176696312</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1606037837595359</v>
+        <v>0.1599543179661458</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.222658525088149</v>
+        <v>0.2211285607866458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2171001380353107</v>
+        <v>0.2154347745668619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1630196686303367</v>
+        <v>0.1611441707390743</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1455900554774675</v>
+        <v>0.1456805168647595</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2117485928502371</v>
+        <v>0.209622795221884</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2115417260130215</v>
+        <v>0.2170370258979303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1807955845990964</v>
+        <v>0.1793698169795143</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1851152431997252</v>
+        <v>0.1891984105654495</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3633074358698553</v>
+        <v>0.3666931179846347</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3560112331815745</v>
+        <v>0.3554375740436031</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2633682674202075</v>
+        <v>0.2633977262016315</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2147390677466829</v>
+        <v>0.214279363809129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2761449209643101</v>
+        <v>0.2760528747655522</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2704561007056929</v>
+        <v>0.2716870905382813</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2108381482716299</v>
+        <v>0.2115180160010229</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1932577264420783</v>
+        <v>0.1912161200665318</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1666529760774162</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2204908053466009</v>
+        <v>0.2204908053466008</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.237667094153236</v>
@@ -969,7 +969,7 @@
         <v>0.1485986790431534</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2089649018709666</v>
+        <v>0.2089649018709665</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1087324294688762</v>
+        <v>0.1106471594807878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1190713293502753</v>
+        <v>0.1186478781291795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0953342930484182</v>
+        <v>0.09820474008302151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1604583252299195</v>
+        <v>0.1598277135479226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2750450208403976</v>
+        <v>0.2784276611733592</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1893094175621441</v>
+        <v>0.1910444130902874</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1257839598486131</v>
+        <v>0.1244935705531738</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1845536417681716</v>
+        <v>0.1896115269365166</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2051816331717579</v>
+        <v>0.209292112530281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1683687710678829</v>
+        <v>0.1678136465220438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1228031658152507</v>
+        <v>0.1228763196987368</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1837410928136785</v>
+        <v>0.1831255582259686</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1878296457561786</v>
+        <v>0.187215631598291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.210755567706766</v>
+        <v>0.206400355500227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1681489145739725</v>
+        <v>0.1672606998416373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.239296277480777</v>
+        <v>0.2418466734712098</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3755408283135561</v>
+        <v>0.3777970233834361</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2830014291622621</v>
+        <v>0.2814558870504822</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2141750189856763</v>
+        <v>0.2111544011534788</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2524788305006683</v>
+        <v>0.2561736601264509</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.272154125633456</v>
+        <v>0.2703577869401064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2337058889212759</v>
+        <v>0.2295671730738447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1798419445578535</v>
+        <v>0.1786689650747513</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2353863158530025</v>
+        <v>0.2364223398140854</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3081420793895005</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2583683069012617</v>
+        <v>0.2583683069012618</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1948884096642022</v>
@@ -1105,7 +1105,7 @@
         <v>0.249048555769898</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2266535978625463</v>
+        <v>0.2266535978625462</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08318520294025834</v>
+        <v>0.08385397775314257</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1584779921800241</v>
+        <v>0.1558858826208143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1480062883893515</v>
+        <v>0.1479656841152795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.14981068872598</v>
+        <v>0.1455640967497157</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2320443687753906</v>
+        <v>0.2298897842046125</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2880538130871447</v>
+        <v>0.2933308534988429</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2580465248526941</v>
+        <v>0.265130483204679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2241644538543102</v>
+        <v>0.2234557600029369</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1675804154327233</v>
+        <v>0.1646265273766384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2383985040025944</v>
+        <v>0.2363695808688145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2191199041560938</v>
+        <v>0.2190367256835261</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1977037406353321</v>
+        <v>0.1934208560458072</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1444714519379627</v>
+        <v>0.1494207553781347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.242474865473579</v>
+        <v>0.2418919669287947</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.230867109092947</v>
+        <v>0.2339314661180472</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2433170157124842</v>
+        <v>0.2472575393688822</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3221737218423184</v>
+        <v>0.3173226962468443</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3858653087507718</v>
+        <v>0.3957955881202322</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3566261148615231</v>
+        <v>0.3602609109075987</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3003017633641444</v>
+        <v>0.3037083332290502</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2229032807294863</v>
+        <v>0.2223390144723999</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3036681076368042</v>
+        <v>0.3026208635144314</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2850493611051823</v>
+        <v>0.2841593300446735</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.255646389027116</v>
+        <v>0.2572254410137276</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2104474458684179</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09458891239450651</v>
+        <v>0.09458891239450654</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3570009975601523</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1547755260409185</v>
+        <v>0.155510137762655</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1128568784183979</v>
+        <v>0.116903801180265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1619584247949923</v>
+        <v>0.1625799252300302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06646623056158271</v>
+        <v>0.06672651423338791</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2908290101015903</v>
+        <v>0.29079114226125</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2488267833951642</v>
+        <v>0.2474185385210906</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.205131497027597</v>
+        <v>0.211284665163417</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1504743362714026</v>
+        <v>0.1529045662727083</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2384589517025017</v>
+        <v>0.2455053080154282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.199952503605855</v>
+        <v>0.1965378476302755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1951317758822762</v>
+        <v>0.2013267614861619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1193327363347452</v>
+        <v>0.1194283390576878</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2630747673979137</v>
+        <v>0.2697880041998533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.224132696380821</v>
+        <v>0.2228144781979463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2733476383306483</v>
+        <v>0.27085374541068</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1335396764301184</v>
+        <v>0.1361583225814298</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4362491892806854</v>
+        <v>0.4315304182890467</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3784449838605126</v>
+        <v>0.3768953164286755</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3289572762566297</v>
+        <v>0.3302042032493191</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2180446855459268</v>
+        <v>0.2200189101474067</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.325788678186918</v>
+        <v>0.3358153991866312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2827146394649649</v>
+        <v>0.2809291942761534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2809247395088466</v>
+        <v>0.2823156927589631</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1648576913255208</v>
+        <v>0.1653989512043748</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2382741689294865</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2715242953239166</v>
+        <v>0.2715242953239164</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2321988379626122</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09084896469743994</v>
+        <v>0.09557994557982767</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1456397941099215</v>
+        <v>0.1450470535171557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1295242505472157</v>
+        <v>0.1320459759608699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1797299275901013</v>
+        <v>0.1816054605801642</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2705942421780259</v>
+        <v>0.2733226585781264</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2178346302475014</v>
+        <v>0.2148179100320655</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1914300022423331</v>
+        <v>0.1869101600242108</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2310128492352668</v>
+        <v>0.2356563268283013</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1933273578859835</v>
+        <v>0.1974020674266088</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1922446674375949</v>
+        <v>0.1967808115524309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1712079563277692</v>
+        <v>0.1713873576990198</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2193209303525589</v>
+        <v>0.2206014110317614</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1756996124695214</v>
+        <v>0.1823533630105788</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2395011574046214</v>
+        <v>0.2416106012529438</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2229555386996332</v>
+        <v>0.2251619266992043</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2683169742450614</v>
+        <v>0.2671466633341554</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3864874507224703</v>
+        <v>0.3884193727567292</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.321732847307058</v>
+        <v>0.3222032448853762</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2966036394434368</v>
+        <v>0.2974883752063011</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3126686346114484</v>
+        <v>0.3113222502425607</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2673472810043099</v>
+        <v>0.2710387501326896</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2654288160801573</v>
+        <v>0.2665885179320844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2459053863313599</v>
+        <v>0.2417425869172667</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2763473990719947</v>
+        <v>0.2761186298791251</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.14209118107707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1490976179433356</v>
+        <v>0.1490976179433355</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2840423714105028</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1140190554235518</v>
+        <v>0.113056785576495</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1236028798287534</v>
+        <v>0.1237802223926188</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1159125868784606</v>
+        <v>0.1152822992683621</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1250080047522868</v>
+        <v>0.1225218852802968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2511266201430967</v>
+        <v>0.2480405838646517</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1998891634026044</v>
+        <v>0.2003675763656278</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2075480529587052</v>
+        <v>0.2029393105887098</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2150720361256549</v>
+        <v>0.2135383816196492</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1901711477248554</v>
+        <v>0.1901825885926902</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1698048528299853</v>
+        <v>0.1710446418352696</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1704747012125878</v>
+        <v>0.1691620330816416</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1780783754542849</v>
+        <v>0.1766608706546147</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.169934264257264</v>
+        <v>0.1700052663578888</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1822857498021073</v>
+        <v>0.1820051292720105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1714729563845669</v>
+        <v>0.1739163590679841</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1799194053208495</v>
+        <v>0.1794654222761489</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3206381210676015</v>
+        <v>0.3203436502868241</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2666891646395975</v>
+        <v>0.2689045260814739</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2749784556108836</v>
+        <v>0.2731052578795827</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2681031286309439</v>
+        <v>0.269470966889981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2375323858786215</v>
+        <v>0.2382820528600421</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.214844685664551</v>
+        <v>0.2179226790380608</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2157072627597552</v>
+        <v>0.2132743462388625</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.215852586568851</v>
+        <v>0.2162055773125848</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.15035445646219</v>
+        <v>0.1496348781687198</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1055246447883306</v>
+        <v>0.1043662034450211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09781371617792134</v>
+        <v>0.09547072895599522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1521958024448011</v>
+        <v>0.1503430358722962</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.225493055961936</v>
+        <v>0.2241590293963963</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1616184053451076</v>
+        <v>0.1596684149716754</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1731767012839929</v>
+        <v>0.1775780206498812</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2367763936315823</v>
+        <v>0.235434661755152</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.197223376889885</v>
+        <v>0.1985450825702015</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1390984086191996</v>
+        <v>0.1393952055989617</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1449242514394071</v>
+        <v>0.1433259212239899</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2007164647537755</v>
+        <v>0.2019354325209245</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2070985871260373</v>
+        <v>0.2065053667599847</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1535763072696775</v>
+        <v>0.1547257152820657</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1467309968009297</v>
+        <v>0.1470514025542968</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2030283154831712</v>
+        <v>0.2014470601303395</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2875873335111906</v>
+        <v>0.2883650171984798</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2143296664554517</v>
+        <v>0.214584251328731</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2342512837221403</v>
+        <v>0.2385933033323403</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2901817514345977</v>
+        <v>0.2889794450933318</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2380375681614932</v>
+        <v>0.2376278398730544</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1767347984164913</v>
+        <v>0.1787828625960738</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1835803544495051</v>
+        <v>0.181836595081847</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2378561573736971</v>
+        <v>0.2374415615998632</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.2387795265625872</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2431780153402356</v>
+        <v>0.2431780153402357</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2224187073177679</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1443366462692545</v>
+        <v>0.1446178915030684</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1541321102506827</v>
+        <v>0.1526201947139776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1452918991516985</v>
+        <v>0.1448313245564578</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1624415003670778</v>
+        <v>0.1605343778179076</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2697077911959559</v>
+        <v>0.2720454620559379</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2522697632956984</v>
+        <v>0.2526439756098749</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2231041959526839</v>
+        <v>0.2237667378932236</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2317100508687194</v>
+        <v>0.2314195754240313</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2128443793144414</v>
+        <v>0.2123431289396614</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.207606824682769</v>
+        <v>0.2080451074747441</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1890285728891344</v>
+        <v>0.1886267062401934</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2000230596190743</v>
+        <v>0.2009125048145466</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.169698834533518</v>
+        <v>0.1693543465172622</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1810240302926411</v>
+        <v>0.180572625320316</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1698447452695475</v>
+        <v>0.1701648606579837</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1874437028055731</v>
+        <v>0.1872600976817307</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3022278479204258</v>
+        <v>0.301848903772208</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2832556602068557</v>
+        <v>0.2831634205444902</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2546073862325048</v>
+        <v>0.2539209308327107</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2542333518005936</v>
+        <v>0.2546608644120505</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.232520888144082</v>
+        <v>0.2330465522048144</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2288273829784732</v>
+        <v>0.2286172033633105</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2081573632248389</v>
+        <v>0.2081357279925384</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2172015819953718</v>
+        <v>0.2179322587593403</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32810</v>
+        <v>33471</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>56884</v>
+        <v>58143</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58345</v>
+        <v>57899</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61219</v>
+        <v>62554</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35905</v>
+        <v>36570</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>98098</v>
+        <v>95594</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79968</v>
+        <v>80046</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>90111</v>
+        <v>90052</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>75786</v>
+        <v>75470</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>166187</v>
+        <v>163545</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>147105</v>
+        <v>142949</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>159440</v>
+        <v>159141</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56643</v>
+        <v>56851</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88116</v>
+        <v>88409</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88189</v>
+        <v>88736</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>88433</v>
+        <v>91186</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61333</v>
+        <v>63382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>134541</v>
+        <v>133478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>112262</v>
+        <v>114126</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>116691</v>
+        <v>116037</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>113494</v>
+        <v>108857</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>210675</v>
+        <v>212366</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>190007</v>
+        <v>190226</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>195998</v>
+        <v>197972</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69181</v>
+        <v>67690</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>71050</v>
+        <v>72656</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>58856</v>
+        <v>57888</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>60587</v>
+        <v>62589</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>141618</v>
+        <v>144045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>141771</v>
+        <v>142323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>96981</v>
+        <v>98352</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>87769</v>
+        <v>87414</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>221755</v>
+        <v>220231</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>223459</v>
+        <v>221745</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>167203</v>
+        <v>165279</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>156821</v>
+        <v>156918</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104178</v>
+        <v>103133</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>106940</v>
+        <v>109718</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>90863</v>
+        <v>90147</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98231</v>
+        <v>100398</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>183088</v>
+        <v>184795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>186466</v>
+        <v>186166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>137764</v>
+        <v>137779</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117354</v>
+        <v>117102</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>275024</v>
+        <v>274932</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>278378</v>
+        <v>279645</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>216248</v>
+        <v>216945</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>208166</v>
+        <v>205967</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34669</v>
+        <v>35279</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38585</v>
+        <v>38447</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30370</v>
+        <v>31285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50704</v>
+        <v>50504</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>92253</v>
+        <v>93388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64372</v>
+        <v>64962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42302</v>
+        <v>41868</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>65771</v>
+        <v>67574</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134242</v>
+        <v>136931</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>111810</v>
+        <v>111442</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>80421</v>
+        <v>80469</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>123543</v>
+        <v>123129</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>59889</v>
+        <v>59693</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>68294</v>
+        <v>66883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53566</v>
+        <v>53283</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75616</v>
+        <v>76422</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125961</v>
+        <v>126718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96230</v>
+        <v>95705</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72029</v>
+        <v>71013</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89979</v>
+        <v>91295</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>178059</v>
+        <v>176884</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>155199</v>
+        <v>152451</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>117774</v>
+        <v>117006</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>158268</v>
+        <v>158964</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29836</v>
+        <v>30076</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>59268</v>
+        <v>58299</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54609</v>
+        <v>54594</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55901</v>
+        <v>54317</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>86194</v>
+        <v>85394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>112039</v>
+        <v>114091</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>99395</v>
+        <v>102123</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>94589</v>
+        <v>94290</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>122355</v>
+        <v>120198</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>181882</v>
+        <v>180334</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>165248</v>
+        <v>165185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>157196</v>
+        <v>153790</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51818</v>
+        <v>53593</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90681</v>
+        <v>90463</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85182</v>
+        <v>86312</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90793</v>
+        <v>92263</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>119673</v>
+        <v>117871</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>150083</v>
+        <v>153945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137366</v>
+        <v>138766</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>126716</v>
+        <v>128153</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>162748</v>
+        <v>162336</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>231678</v>
+        <v>230879</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>214969</v>
+        <v>214297</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>203266</v>
+        <v>204522</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31467</v>
+        <v>31616</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23995</v>
+        <v>24856</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34044</v>
+        <v>34174</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13670</v>
+        <v>13723</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>60396</v>
+        <v>60388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>54640</v>
+        <v>54331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44839</v>
+        <v>46184</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>34350</v>
+        <v>34905</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>98001</v>
+        <v>100897</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>86421</v>
+        <v>84945</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>83670</v>
+        <v>86326</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>51784</v>
+        <v>51825</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53485</v>
+        <v>54850</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47655</v>
+        <v>47374</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57458</v>
+        <v>56934</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27464</v>
+        <v>28003</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>90595</v>
+        <v>89615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>83103</v>
+        <v>82763</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>71906</v>
+        <v>72178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49775</v>
+        <v>50226</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>133891</v>
+        <v>138012</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>122192</v>
+        <v>121420</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>120457</v>
+        <v>121054</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>71539</v>
+        <v>71774</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24603</v>
+        <v>25884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39903</v>
+        <v>39740</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33956</v>
+        <v>34617</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>48654</v>
+        <v>49162</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>75264</v>
+        <v>76023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61000</v>
+        <v>60156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52073</v>
+        <v>50844</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>60930</v>
+        <v>62154</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>106128</v>
+        <v>108365</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>106506</v>
+        <v>109019</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>91457</v>
+        <v>91553</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>117218</v>
+        <v>117902</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47581</v>
+        <v>49383</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>65619</v>
+        <v>66197</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>58450</v>
+        <v>59029</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>72635</v>
+        <v>72318</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>107499</v>
+        <v>108037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>90095</v>
+        <v>90227</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>80683</v>
+        <v>80923</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>82466</v>
+        <v>82111</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>146762</v>
+        <v>148788</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>147051</v>
+        <v>147693</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>131359</v>
+        <v>129135</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>147696</v>
+        <v>147574</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70125</v>
+        <v>69533</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>81054</v>
+        <v>81171</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>75999</v>
+        <v>75586</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>89967</v>
+        <v>88177</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>160274</v>
+        <v>158304</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>138311</v>
+        <v>138642</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>143265</v>
+        <v>140083</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>166048</v>
+        <v>164864</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>238331</v>
+        <v>238346</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>228846</v>
+        <v>230517</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>229447</v>
+        <v>227681</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>265647</v>
+        <v>263533</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>104514</v>
+        <v>104558</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>119537</v>
+        <v>119353</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>112428</v>
+        <v>114030</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>129486</v>
+        <v>129159</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>204637</v>
+        <v>204449</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>184532</v>
+        <v>186065</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>189810</v>
+        <v>188517</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>206991</v>
+        <v>208047</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>297687</v>
+        <v>298626</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>289546</v>
+        <v>293695</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>290327</v>
+        <v>287053</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>321997</v>
+        <v>322523</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>111833</v>
+        <v>111298</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>82214</v>
+        <v>81312</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>76063</v>
+        <v>74241</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>121463</v>
+        <v>119985</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>176676</v>
+        <v>175631</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>132835</v>
+        <v>131232</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>143073</v>
+        <v>146709</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>196840</v>
+        <v>195724</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>301220</v>
+        <v>303239</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>222697</v>
+        <v>223172</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>232429</v>
+        <v>229865</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>327048</v>
+        <v>329034</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>154039</v>
+        <v>153598</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>119651</v>
+        <v>120546</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>114102</v>
+        <v>114351</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>162031</v>
+        <v>160769</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>225328</v>
+        <v>225937</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>176158</v>
+        <v>176368</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>193531</v>
+        <v>197118</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>241237</v>
+        <v>240238</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>363556</v>
+        <v>362930</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>282953</v>
+        <v>286232</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>294425</v>
+        <v>291629</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>387564</v>
+        <v>386888</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>472769</v>
+        <v>473690</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>527094</v>
+        <v>521924</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>492469</v>
+        <v>490908</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>573867</v>
+        <v>567130</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>911396</v>
+        <v>919295</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>896430</v>
+        <v>897760</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>789635</v>
+        <v>791980</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>865742</v>
+        <v>864657</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1416406</v>
+        <v>1413070</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1447687</v>
+        <v>1450743</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1309747</v>
+        <v>1306962</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1453984</v>
+        <v>1460449</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>555842</v>
+        <v>554713</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>619058</v>
+        <v>617514</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>575691</v>
+        <v>576777</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>662194</v>
+        <v>661545</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1021287</v>
+        <v>1020007</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1006537</v>
+        <v>1006209</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>901135</v>
+        <v>898705</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>949897</v>
+        <v>951494</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1547347</v>
+        <v>1550845</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1595662</v>
+        <v>1594196</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1442287</v>
+        <v>1442137</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1578856</v>
+        <v>1584167</v>
       </c>
     </row>
     <row r="40">
